--- a/biology/Zoologie/Chrysochroa_fulminans/Chrysochroa_fulminans.xlsx
+++ b/biology/Zoologie/Chrysochroa_fulminans/Chrysochroa_fulminans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chrysochroa fulminans, ou bupreste de foudre[1] est une espèce de scarabées bijoux de la famille des Buprestidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chrysochroa fulminans, ou bupreste de foudre est une espèce de scarabées bijoux de la famille des Buprestidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysochroa fulminans peut atteindre une longueur de 30 à 40 millimètres. Cette espèce est remarquablement colorée d'un vert métallique avec parfois des reflets irrisés et violacés.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chrysochroa fulminans agusanensis Kurosawa, 1979
 Chrysochroa fulminans aurora Heller, 1912
@@ -590,7 +606,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bupestre de foudre se rencontre essentiellement dans les forêts tropicales humides de l'Extrême-Orient méridional jusqu'en Papouasie-Nouvelle-Guinée et de quelques îles de la région. Il se nourrit du bois des arbres qui croissent dans ces forêts.
 </t>
@@ -621,7 +639,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve ces coléoptères de la Malaisie et de l'Indonésie jusqu'en Papouasie-Nouvelle-Guinée.
 </t>
